--- a/feature.xlsx
+++ b/feature.xlsx
@@ -1,26 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>最后k天的25个特征的总排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后k天的25个特征在同一类目、store、品牌、卖家下的排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后k天的25个特征均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11双12销量与近7天销量均值的比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11双12销量比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双12之前销量与近7天销量均值的比例</t>
+  </si>
+  <si>
+    <t>双11之后8~14天与1~7天的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否降价or涨价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +91,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +392,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/feature.xlsx
+++ b/feature.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>最后k天的25个特征的总排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,18 +24,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最后k天的25个特征均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双11双12销量与近7天销量均值的比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双11双12销量比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双12之前销量与近7天销量均值的比例</t>
   </si>
   <si>
@@ -44,6 +36,34 @@
   </si>
   <si>
     <t>是否降价or涨价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在平时，前k天的特征m与目标集的比值（提前k天预测的可行性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生高和降低的次数的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升高的幅度的均值和降低的幅度的均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11双12占总销量比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间上的排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后k天的25个特征均值和方差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,56 +413,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="54.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
